--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2878113.901518264</v>
+        <v>2873855.639291789</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554859</v>
+        <v>10955577.07554858</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8872809.818028692</v>
+        <v>8872809.818028696</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.1636514716173</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386867</v>
+        <v>118.9581905386872</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241020306</v>
+        <v>0.7530123241028832</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011782</v>
+        <v>154.9260532011785</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1557452255192</v>
+        <v>225.3616173302345</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>128.0351928864043</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261759</v>
+        <v>99.96876284261766</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323655</v>
+        <v>45.66663787323679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199404</v>
+        <v>21.29900499199448</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156105</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973763</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>146.1961436373569</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>125.7718058529031</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>14.30738394564026</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>412.9288914861689</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.1636514716173</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.9581905386872</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241022295</v>
+        <v>0.7530123241028832</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011783</v>
+        <v>154.9260532011785</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>271.918385731035</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261761</v>
+        <v>99.96876284261766</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323661</v>
+        <v>45.66663787323679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199415</v>
+        <v>21.29900499199448</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156105</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973763</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>106.0596898274345</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9261537524328</v>
       </c>
       <c r="H7" t="n">
-        <v>152.75990484659</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842212</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063299</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>185.9734800457627</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>302.4143679620957</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>109.3688786625877</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.2229739853304</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>146.237891632728</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>19.51567534720864</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>139.188673966789</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>70.803028119798</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1815,16 +1815,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>73.44478684180568</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>20.9284728855285</v>
+        <v>18.50276072357057</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>141.383131826302</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>146.2834074964109</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>27.02919805176216</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>20.38427178198041</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>46.52295781333198</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>114.2173032139413</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>101.5168569947382</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4036,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>19.91555826189198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000.963671197077</v>
+        <v>1705.099046493925</v>
       </c>
       <c r="C2" t="n">
-        <v>1000.963671197077</v>
+        <v>1705.099046493925</v>
       </c>
       <c r="D2" t="n">
-        <v>1000.963671197077</v>
+        <v>1705.099046493925</v>
       </c>
       <c r="E2" t="n">
-        <v>1000.963671197077</v>
+        <v>1319.310793895681</v>
       </c>
       <c r="F2" t="n">
-        <v>589.9777664074697</v>
+        <v>908.3248891060737</v>
       </c>
       <c r="G2" t="n">
-        <v>172.8778760174001</v>
+        <v>491.224998716004</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174001</v>
+        <v>172.8778760174006</v>
       </c>
       <c r="I2" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002453</v>
+        <v>72.94508437002345</v>
       </c>
       <c r="K2" t="n">
-        <v>474.9025859199842</v>
+        <v>153.9986274745283</v>
       </c>
       <c r="L2" t="n">
-        <v>1025.843037648564</v>
+        <v>693.1884131896921</v>
       </c>
       <c r="M2" t="n">
-        <v>1655.476990529841</v>
+        <v>1322.822366070967</v>
       </c>
       <c r="N2" t="n">
-        <v>2280.667081484956</v>
+        <v>1948.012457026079</v>
       </c>
       <c r="O2" t="n">
-        <v>2448.836538789334</v>
+        <v>2493.174093780573</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992997</v>
+        <v>2602.201833993</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
@@ -4360,22 +4360,22 @@
         <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.652798385543</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.960126440574</v>
+        <v>2036.161933837496</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.897239097003</v>
+        <v>1705.099046493925</v>
       </c>
       <c r="W2" t="n">
-        <v>1764.568761433969</v>
+        <v>1705.099046493925</v>
       </c>
       <c r="X2" t="n">
-        <v>1391.103003172889</v>
+        <v>1705.099046493925</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000.963671197077</v>
+        <v>1705.099046493925</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>337.2724292911492</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640338</v>
+        <v>199.8245529640341</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815747</v>
+        <v>98.84600463815775</v>
       </c>
       <c r="I3" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J3" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K3" t="n">
-        <v>381.1211448320009</v>
+        <v>216.1238066351193</v>
       </c>
       <c r="L3" t="n">
-        <v>884.103979029112</v>
+        <v>351.9746989818042</v>
       </c>
       <c r="M3" t="n">
-        <v>1523.04044400983</v>
+        <v>990.9111639625206</v>
       </c>
       <c r="N3" t="n">
-        <v>1958.575638897796</v>
+        <v>1643.297497944263</v>
       </c>
       <c r="O3" t="n">
-        <v>2506.50087810347</v>
+        <v>2191.222737149935</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877466</v>
+        <v>2613.977979877468</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R3" t="n">
         <v>2614.390233267651</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>645.31064044809</v>
+        <v>221.6542705223911</v>
       </c>
       <c r="C4" t="n">
-        <v>497.6377680871234</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="D4" t="n">
-        <v>347.5211286747877</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="E4" t="n">
-        <v>199.6080350923946</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="F4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919734</v>
+        <v>153.1475318919727</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482327</v>
+        <v>337.1890785482312</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628155</v>
+        <v>541.624208062813</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543764</v>
+        <v>746.632943554373</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917094</v>
+        <v>919.975396891705</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327086</v>
+        <v>1044.779129327081</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="V4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="W4" t="n">
-        <v>1047.75168442186</v>
+        <v>758.3345143848937</v>
       </c>
       <c r="X4" t="n">
-        <v>1047.75168442186</v>
+        <v>530.3449634868764</v>
       </c>
       <c r="Y4" t="n">
-        <v>826.9591052783297</v>
+        <v>403.3027353526309</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.766399714573</v>
+        <v>2088.513466409731</v>
       </c>
       <c r="C5" t="n">
-        <v>880.8038827741614</v>
+        <v>1719.55094946932</v>
       </c>
       <c r="D5" t="n">
-        <v>880.8038827741614</v>
+        <v>1705.099046493925</v>
       </c>
       <c r="E5" t="n">
-        <v>880.8038827741614</v>
+        <v>1319.310793895681</v>
       </c>
       <c r="F5" t="n">
-        <v>469.8179779845538</v>
+        <v>908.3248891060737</v>
       </c>
       <c r="G5" t="n">
-        <v>52.7180875944842</v>
+        <v>491.224998716004</v>
       </c>
       <c r="H5" t="n">
-        <v>52.7180875944842</v>
+        <v>172.8778760174006</v>
       </c>
       <c r="I5" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002428</v>
+        <v>240.3507333903765</v>
       </c>
       <c r="K5" t="n">
-        <v>153.9986274745304</v>
+        <v>642.3082349403345</v>
       </c>
       <c r="L5" t="n">
-        <v>541.4080307967278</v>
+        <v>1042.407704672387</v>
       </c>
       <c r="M5" t="n">
-        <v>1171.041983678004</v>
+        <v>1227.023259395758</v>
       </c>
       <c r="N5" t="n">
-        <v>1796.232074633118</v>
+        <v>1419.239895183006</v>
       </c>
       <c r="O5" t="n">
-        <v>1964.401531937496</v>
+        <v>1964.401531937499</v>
       </c>
       <c r="P5" t="n">
-        <v>2392.009993239692</v>
+        <v>2392.009993239694</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R5" t="n">
         <v>2635.143761215016</v>
@@ -4597,22 +4597,22 @@
         <v>2478.652798385543</v>
       </c>
       <c r="T5" t="n">
-        <v>2263.799931140763</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="U5" t="n">
-        <v>2263.799931140763</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="V5" t="n">
-        <v>1989.134895048809</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="W5" t="n">
-        <v>1636.366239778695</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="X5" t="n">
-        <v>1636.366239778695</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="Y5" t="n">
-        <v>1636.366239778695</v>
+        <v>2088.513466409731</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120986</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309716</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697203</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642648</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911498</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640338</v>
+        <v>199.8245529640342</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815741</v>
+        <v>98.84600463815775</v>
       </c>
       <c r="I6" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J6" t="n">
-        <v>52.7180875944842</v>
+        <v>170.7774263352073</v>
       </c>
       <c r="K6" t="n">
-        <v>119.3005601895479</v>
+        <v>499.1804835727229</v>
       </c>
       <c r="L6" t="n">
-        <v>351.974698981799</v>
+        <v>1002.163317769832</v>
       </c>
       <c r="M6" t="n">
-        <v>990.9111639625168</v>
+        <v>1641.099782750549</v>
       </c>
       <c r="N6" t="n">
-        <v>1643.297497944259</v>
+        <v>1838.105057531856</v>
       </c>
       <c r="O6" t="n">
-        <v>2191.222737149933</v>
+        <v>2298.524363244982</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877466</v>
+        <v>2406.001465018977</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4682,7 +4682,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4691,7 +4691,7 @@
         <v>1342.40751699712</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.647218232167</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.9546325454379</v>
+        <v>645.3106404480845</v>
       </c>
       <c r="C7" t="n">
-        <v>349.9546325454379</v>
+        <v>476.3744575201777</v>
       </c>
       <c r="D7" t="n">
-        <v>349.9546325454379</v>
+        <v>369.2434576944862</v>
       </c>
       <c r="E7" t="n">
-        <v>349.9546325454379</v>
+        <v>221.3303641120931</v>
       </c>
       <c r="F7" t="n">
-        <v>349.9546325454379</v>
+        <v>221.3303641120931</v>
       </c>
       <c r="G7" t="n">
-        <v>349.9546325454379</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H7" t="n">
-        <v>195.6516983569632</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I7" t="n">
-        <v>70.97668332239633</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919732</v>
+        <v>153.1475318919727</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482324</v>
+        <v>337.1890785482312</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628149</v>
+        <v>541.624208062813</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543756</v>
+        <v>746.632943554373</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917083</v>
+        <v>919.975396891705</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327085</v>
+        <v>1044.779129327081</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421858</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421858</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421858</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421858</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="U7" t="n">
-        <v>758.599211735193</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="V7" t="n">
-        <v>758.599211735193</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="W7" t="n">
-        <v>570.747211688968</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="X7" t="n">
-        <v>570.747211688968</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="Y7" t="n">
-        <v>349.9546325454379</v>
+        <v>826.9591052783243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.410617085857</v>
+        <v>1132.930794153084</v>
       </c>
       <c r="C8" t="n">
-        <v>905.4481001454453</v>
+        <v>763.9682772126719</v>
       </c>
       <c r="D8" t="n">
-        <v>905.4481001454453</v>
+        <v>458.4992186651004</v>
       </c>
       <c r="E8" t="n">
-        <v>905.4481001454453</v>
+        <v>72.71096606685619</v>
       </c>
       <c r="F8" t="n">
-        <v>898.5025993962419</v>
+        <v>65.76546531765271</v>
       </c>
       <c r="G8" t="n">
-        <v>481.4148176326693</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H8" t="n">
-        <v>163.1917024051788</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I8" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3579866082205</v>
+        <v>73.95233758786752</v>
       </c>
       <c r="K8" t="n">
-        <v>644.825099628266</v>
+        <v>156.5154921624599</v>
       </c>
       <c r="L8" t="n">
-        <v>784.1537554695192</v>
+        <v>709.3287504086591</v>
       </c>
       <c r="M8" t="n">
-        <v>1415.871566452831</v>
+        <v>1341.046561391971</v>
       </c>
       <c r="N8" t="n">
-        <v>1610.205779344813</v>
+        <v>1968.354229451817</v>
       </c>
       <c r="O8" t="n">
-        <v>2157.366984111891</v>
+        <v>2490.185934453089</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.728418949309</v>
+        <v>2600.920259702616</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="U8" t="n">
-        <v>2382.212676469361</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="V8" t="n">
-        <v>2051.14978912579</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="W8" t="n">
-        <v>2051.14978912579</v>
+        <v>2283.135724454097</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.14978912579</v>
+        <v>1909.669966193017</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.010457149979</v>
+        <v>1519.530634217205</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>336.9803201001412</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5389224593631</v>
+        <v>199.5389224593632</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416771</v>
+        <v>98.62294460416774</v>
       </c>
       <c r="I9" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3773394513799</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571897</v>
+        <v>120.3259072578413</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.167283623308</v>
+        <v>345.99074315113</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.664619977913</v>
+        <v>986.5360926182346</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.945911741486</v>
+        <v>1638.922426599977</v>
       </c>
       <c r="O9" t="n">
-        <v>1980.381920494209</v>
+        <v>2188.3584353527</v>
       </c>
       <c r="P9" t="n">
-        <v>2404.349688975046</v>
+        <v>2612.326203833537</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.063145035514</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>221.6542705223911</v>
+        <v>666.5739510150303</v>
       </c>
       <c r="C10" t="n">
-        <v>52.7180875944842</v>
+        <v>497.6377680871234</v>
       </c>
       <c r="D10" t="n">
-        <v>52.7180875944842</v>
+        <v>347.5211286747877</v>
       </c>
       <c r="E10" t="n">
-        <v>52.7180875944842</v>
+        <v>199.6080350923946</v>
       </c>
       <c r="F10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4992,22 +4992,22 @@
         <v>1052.652769053829</v>
       </c>
       <c r="T10" t="n">
-        <v>827.0235723661939</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="U10" t="n">
-        <v>537.8713959438737</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="V10" t="n">
-        <v>537.8713959438737</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="W10" t="n">
-        <v>403.3027353526309</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="X10" t="n">
-        <v>403.3027353526309</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="Y10" t="n">
-        <v>403.3027353526309</v>
+        <v>848.22241584527</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>783.5579673960132</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681063</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>618.4214495336224</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>470.5083559512293</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>323.6184084533189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1413.9885622678</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1185.999011369783</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>965.2064322262529</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5263,25 +5263,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>878.3568999154069</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>709.4207169875</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1090.767110287001</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>921.8309273590944</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>771.7142879467586</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>623.8011943643655</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>476.9112468664551</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>309.7151475813351</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>168.0033164235332</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1272.415575117241</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5837,22 +5837,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474262</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F22" t="n">
-        <v>114.9565346495158</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1648.869221910438</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6229,16 +6229,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6463,10 +6463,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3093.254426444652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2924.318243516745</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2774.20160410441</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2626.288510522017</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2479.398563024106</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4267.786679559287</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>4013.1021913534</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3723.68502131644</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3495.695470418422</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3274.902891274892</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>432.9862109052757</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>432.9862109052757</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7411,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7450,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.6442739835331</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1585.843574062041</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1296.426404025081</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1068.436853127063</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>847.6442739835331</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7648,19 +7648,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2824.769373306003</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>2655.833190378096</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>2505.71655096576</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>2357.803457383367</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420637</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V46" t="n">
-        <v>3744.61713821475</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W46" t="n">
-        <v>3455.19996817779</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X46" t="n">
-        <v>3227.210417279773</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>3006.417838136243</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>405.7918549409409</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7993,10 +7993,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>44.78540908205505</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8057,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546477</v>
+        <v>6.839178026547145</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>97.80125903593162</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>240.9393132390474</v>
+        <v>459.9808678792276</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>252.4783373722864</v>
+        <v>265.2965862711314</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026546648</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>97.80125903592429</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>459.980867879226</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>305.4724874660772</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>355.2148279639521</v>
       </c>
       <c r="P8" t="n">
-        <v>123.865767260497</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>89.32852310868159</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>458.3127195243208</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>19.28624665954081</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>267.0073229893824</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>40.6433062151483</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>77.81244489841436</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>7.821049476759853</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>144.5956654067404</v>
+        <v>147.0213775686983</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>79.42624789262629</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>121.5862749664502</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>265.8002026072637</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>179.1866975757052</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>51.30683507832751</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>150.6207863290898</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>125.5054897610393</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,13 +26073,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>813257.4193128225</v>
+        <v>813257.419312823</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>813257.4193128226</v>
+        <v>813257.419312823</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>812909.2408488584</v>
+        <v>812909.2408488585</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983668</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983668</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380331</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380331</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380344</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442552</v>
@@ -26328,34 +26328,34 @@
         <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="I2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.9447442545</v>
-      </c>
       <c r="K2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222414</v>
+        <v>789845.9331222384</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448474841</v>
+        <v>2553.741448476983</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329923</v>
+        <v>775624.2722329922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821403</v>
+        <v>172417.1413821404</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663868</v>
+        <v>128024.1174663867</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408958</v>
+        <v>184436.3405408964</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408959</v>
+        <v>184436.3405408963</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
@@ -26429,19 +26429,19 @@
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="G4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695052</v>
@@ -26450,16 +26450,16 @@
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538442</v>
+        <v>86566.12012538436</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538439</v>
+        <v>86566.12012538436</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.1255591778</v>
+        <v>86631.12555917783</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-383488.9336504882</v>
+        <v>-383488.933650486</v>
       </c>
       <c r="C6" t="n">
-        <v>406356.999471754</v>
+        <v>406356.9994717524</v>
       </c>
       <c r="D6" t="n">
-        <v>404242.0076643787</v>
+        <v>404242.007664377</v>
       </c>
       <c r="E6" t="n">
-        <v>-217138.3378443393</v>
+        <v>-217485.7170986962</v>
       </c>
       <c r="F6" t="n">
-        <v>558485.9343886528</v>
+        <v>558138.5551342958</v>
       </c>
       <c r="G6" t="n">
-        <v>558485.9343886527</v>
+        <v>558138.5551342956</v>
       </c>
       <c r="H6" t="n">
-        <v>558485.9343886526</v>
+        <v>558138.5551342957</v>
       </c>
       <c r="I6" t="n">
-        <v>558485.9343886527</v>
+        <v>558138.555134296</v>
       </c>
       <c r="J6" t="n">
-        <v>386068.793006512</v>
+        <v>385721.4137521553</v>
       </c>
       <c r="K6" t="n">
-        <v>558485.9343886527</v>
+        <v>558138.555134296</v>
       </c>
       <c r="L6" t="n">
-        <v>558485.9343886529</v>
+        <v>558138.555134296</v>
       </c>
       <c r="M6" t="n">
-        <v>430461.8169222656</v>
+        <v>430114.4376679089</v>
       </c>
       <c r="N6" t="n">
-        <v>558485.9343886527</v>
+        <v>558138.5551342958</v>
       </c>
       <c r="O6" t="n">
-        <v>558485.9343886524</v>
+        <v>558138.5551342961</v>
       </c>
       <c r="P6" t="n">
-        <v>558485.9343886529</v>
+        <v>558138.5551342956</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053372</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053397</v>
+        <v>590.4941997053372</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053372</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.461076081066722e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632725342</v>
+        <v>2.981900632727843</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685956</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685956</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685956</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716171</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723318</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>25.7941278952847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>221.2057758310087</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05067746127091</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524327</v>
+        <v>166.9261537524328</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>152.7599048465901</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842211</v>
+        <v>123.4282648842213</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063289</v>
+        <v>18.07600977063332</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371267</v>
+        <v>129.4149600371269</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>205.4595917937734</v>
       </c>
       <c r="T4" t="n">
         <v>223.3958800207158</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>92.81284749919172</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>340.3756576750427</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716172</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386869</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U5" t="n">
         <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
-        <v>55.83387273909989</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>42.55578319077783</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524327</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7599048465901</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.4282648842213</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.07600977063332</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371267</v>
+        <v>129.4149600371269</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937733</v>
+        <v>205.4595917937734</v>
       </c>
       <c r="T7" t="n">
         <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>100.5495182908283</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>52.26867365858726</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>9.12716223130262</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28064,22 +28064,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.3000243512606</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966191</v>
+        <v>2.373846028966178</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064415001</v>
+        <v>24.31115064414988</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171918</v>
+        <v>91.51769903171866</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009694</v>
+        <v>201.4772144009683</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071084</v>
+        <v>301.9621168071067</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160826</v>
+        <v>374.6107072160805</v>
       </c>
       <c r="M2" t="n">
-        <v>416.82659153371</v>
+        <v>416.8265915337077</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635102</v>
+        <v>423.5712815635079</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129777</v>
+        <v>399.9663501129754</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728747</v>
+        <v>341.3620262728729</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605229</v>
+        <v>256.3486653605215</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170477</v>
+        <v>149.1161056170468</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506714</v>
+        <v>54.09401638506684</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179951</v>
+        <v>10.39151099179945</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172953</v>
+        <v>0.1899076823172942</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366204</v>
+        <v>1.270119599366197</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387887</v>
+        <v>12.2666813938788</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817852</v>
+        <v>43.72999497817828</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401202</v>
+        <v>119.9984486401195</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976559</v>
+        <v>205.0964617976547</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623857</v>
+        <v>275.7775033623842</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394105</v>
+        <v>321.8193388394088</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351603</v>
+        <v>330.3369391351584</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492038</v>
+        <v>302.1937627492022</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789728</v>
+        <v>242.5371364789715</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190965</v>
+        <v>162.1296527190956</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064909</v>
+        <v>78.85882916064865</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822751</v>
+        <v>23.59191448822737</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445357</v>
+        <v>5.119473297445327</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830293</v>
+        <v>0.08356049995830248</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026024</v>
+        <v>1.064825606026018</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849563</v>
+        <v>9.467267660849512</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303716</v>
+        <v>32.02221004303698</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603988</v>
+        <v>75.28317034603946</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546598</v>
+        <v>123.7133749546591</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177236</v>
+        <v>158.3105269177227</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609702</v>
+        <v>166.9162538609693</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203279</v>
+        <v>162.947358420327</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953875</v>
+        <v>150.5082592953866</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324565</v>
+        <v>128.7858169324558</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550642</v>
+        <v>89.16462415550592</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004284</v>
+        <v>47.87843134004257</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319897</v>
+        <v>18.55700624319887</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565737</v>
+        <v>4.549709407565711</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232864</v>
+        <v>0.05808139669232831</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966188</v>
+        <v>2.373846028966178</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414998</v>
+        <v>24.31115064414988</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171905</v>
+        <v>91.51769903171866</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009692</v>
+        <v>201.4772144009683</v>
       </c>
       <c r="K5" t="n">
-        <v>301.962116807108</v>
+        <v>301.9621168071067</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160821</v>
+        <v>374.6107072160805</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337095</v>
+        <v>416.8265915337077</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635097</v>
+        <v>423.5712815635079</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129771</v>
+        <v>399.9663501129754</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728743</v>
+        <v>341.3620262728729</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605226</v>
+        <v>256.3486653605215</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170475</v>
+        <v>149.1161056170468</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506706</v>
+        <v>54.09401638506684</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179949</v>
+        <v>10.39151099179945</v>
       </c>
       <c r="U5" t="n">
-        <v>0.189907682317295</v>
+        <v>0.1899076823172942</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366202</v>
+        <v>1.270119599366197</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387885</v>
+        <v>12.2666813938788</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817847</v>
+        <v>43.72999497817828</v>
       </c>
       <c r="J6" t="n">
-        <v>119.99844864012</v>
+        <v>119.9984486401195</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976556</v>
+        <v>205.0964617976547</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623853</v>
+        <v>275.7775033623842</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394101</v>
+        <v>321.8193388394088</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351598</v>
+        <v>330.3369391351584</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492034</v>
+        <v>302.1937627492022</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789725</v>
+        <v>242.5371364789715</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190963</v>
+        <v>162.1296527190956</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064898</v>
+        <v>78.85882916064865</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822747</v>
+        <v>23.59191448822737</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445349</v>
+        <v>5.119473297445327</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830282</v>
+        <v>0.08356049995830248</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026022</v>
+        <v>1.064825606026018</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849551</v>
+        <v>9.467267660849512</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303712</v>
+        <v>32.02221004303698</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603978</v>
+        <v>75.28317034603946</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546597</v>
+        <v>123.7133749546591</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177234</v>
+        <v>158.3105269177227</v>
       </c>
       <c r="M7" t="n">
-        <v>166.91625386097</v>
+        <v>166.9162538609693</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203277</v>
+        <v>162.947358420327</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953873</v>
+        <v>150.5082592953866</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324563</v>
+        <v>128.7858169324558</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550629</v>
+        <v>89.16462415550592</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004277</v>
+        <v>47.87843134004257</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319894</v>
+        <v>18.55700624319887</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565731</v>
+        <v>4.549709407565711</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232856</v>
+        <v>0.05808139669232831</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>302.967544750805</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31864,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,25 +32320,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>272.7569329364655</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>295.9743940159484</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33183,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>305.5427724581384</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>340.7767527663067</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,22 +34453,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428316</v>
+        <v>20.43130987428205</v>
       </c>
       <c r="K2" t="n">
-        <v>406.0176783332926</v>
+        <v>81.87226576212618</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965458</v>
+        <v>544.6361471870341</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992698</v>
+        <v>635.9938917992674</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789034</v>
+        <v>631.5051423789012</v>
       </c>
       <c r="O2" t="n">
-        <v>169.868138691291</v>
+        <v>550.668319954034</v>
       </c>
       <c r="P2" t="n">
-        <v>154.9144395996603</v>
+        <v>110.1290305176033</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607346</v>
+        <v>34.04297548607204</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>331.7202598358755</v>
+        <v>165.0562818592274</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859707</v>
+        <v>137.22312358251</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673921</v>
+        <v>645.3903686673904</v>
       </c>
       <c r="N3" t="n">
-        <v>439.9345402908744</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="O3" t="n">
-        <v>553.459837581489</v>
+        <v>553.4598375814872</v>
       </c>
       <c r="P3" t="n">
-        <v>108.5627290646426</v>
+        <v>427.0254977045784</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307501</v>
+        <v>22.1478786330741</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.443883128777</v>
+        <v>101.4438831287763</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780397</v>
+        <v>185.9005521780389</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228108</v>
+        <v>206.5001308228099</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995565</v>
+        <v>207.0795307995556</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094272</v>
+        <v>175.0933872094263</v>
       </c>
       <c r="P4" t="n">
-        <v>126.06437619735</v>
+        <v>126.0643761973493</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903812031</v>
+        <v>3.002580903811534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.4313098742829</v>
+        <v>189.5279250463558</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212743</v>
+        <v>406.0176783332909</v>
       </c>
       <c r="L5" t="n">
-        <v>391.3226296183812</v>
+        <v>404.1408785172246</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992692</v>
+        <v>186.480358306435</v>
       </c>
       <c r="N5" t="n">
-        <v>631.505142378903</v>
+        <v>194.158217966917</v>
       </c>
       <c r="O5" t="n">
-        <v>169.8681386912904</v>
+        <v>550.668319954034</v>
       </c>
       <c r="P5" t="n">
-        <v>431.9277386890874</v>
+        <v>431.927738689086</v>
       </c>
       <c r="Q5" t="n">
-        <v>246.3579661459778</v>
+        <v>246.3579661459767</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.2518573138617</v>
       </c>
       <c r="K6" t="n">
-        <v>67.25502282329663</v>
+        <v>331.7202598358743</v>
       </c>
       <c r="L6" t="n">
-        <v>235.0243826184355</v>
+        <v>508.0634688859691</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673917</v>
+        <v>645.3903686673904</v>
       </c>
       <c r="N6" t="n">
-        <v>658.9760949310526</v>
+        <v>198.9952270518251</v>
       </c>
       <c r="O6" t="n">
-        <v>553.4598375814885</v>
+        <v>465.0700057708349</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045794</v>
+        <v>108.5627290646412</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.14787863307481</v>
+        <v>232.2251663689232</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287768</v>
+        <v>101.4438831287763</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780395</v>
+        <v>185.9005521780389</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228106</v>
+        <v>206.5001308228099</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995563</v>
+        <v>207.0795307995556</v>
       </c>
       <c r="O7" t="n">
-        <v>175.093387209427</v>
+        <v>175.0933872094263</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973498</v>
+        <v>126.0643761973493</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903811904</v>
+        <v>3.002580903811534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>527.1027323245172</v>
       </c>
       <c r="P8" t="n">
-        <v>235.7186210478975</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>227.9442786800896</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35272,7 +35272,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287866</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>134.2025531565913</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>165.5609983721169</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2873855.639291789</v>
+        <v>2875616.169594575</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9288914861689</v>
+        <v>319.564573399021</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716173</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>118.9581905386872</v>
@@ -715,7 +715,7 @@
         <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
-        <v>225.3616173302345</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>117.0175033475507</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.4282648842213</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>125.7718058529031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>14.30738394564026</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9288914861689</v>
+        <v>240.4712715381255</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716173</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386872</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>106.0596898274345</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524328</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.07600977063332</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>214.3913246101363</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>302.4143679620957</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>264.5722406254455</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>79.2860473850909</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>41.55695577161148</v>
       </c>
       <c r="G13" t="n">
-        <v>146.237891632728</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.188673966789</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1818,13 +1818,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>18.50276072357057</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>146.2834074964109</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144412</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>144.7250005831139</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1705.099046493925</v>
+        <v>1292.444531788102</v>
       </c>
       <c r="C2" t="n">
-        <v>1705.099046493925</v>
+        <v>1292.444531788102</v>
       </c>
       <c r="D2" t="n">
-        <v>1705.099046493925</v>
+        <v>1292.444531788102</v>
       </c>
       <c r="E2" t="n">
-        <v>1319.310793895681</v>
+        <v>906.6562791898577</v>
       </c>
       <c r="F2" t="n">
-        <v>908.3248891060737</v>
+        <v>495.6703744002502</v>
       </c>
       <c r="G2" t="n">
-        <v>491.224998716004</v>
+        <v>172.8778760174006</v>
       </c>
       <c r="H2" t="n">
         <v>172.8778760174006</v>
@@ -4336,13 +4336,13 @@
         <v>153.9986274745283</v>
       </c>
       <c r="L2" t="n">
-        <v>693.1884131896921</v>
+        <v>704.9390792031065</v>
       </c>
       <c r="M2" t="n">
-        <v>1322.822366070967</v>
+        <v>1334.573032084381</v>
       </c>
       <c r="N2" t="n">
-        <v>1948.012457026079</v>
+        <v>1959.763123039494</v>
       </c>
       <c r="O2" t="n">
         <v>2493.174093780573</v>
@@ -4363,19 +4363,19 @@
         <v>2263.799931140763</v>
       </c>
       <c r="U2" t="n">
-        <v>2036.161933837496</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="V2" t="n">
-        <v>1705.099046493925</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="W2" t="n">
-        <v>1705.099046493925</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="X2" t="n">
-        <v>1705.099046493925</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="Y2" t="n">
-        <v>1705.099046493925</v>
+        <v>1679.044371852224</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>337.2724292911492</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640341</v>
+        <v>199.824552964034</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815775</v>
+        <v>98.84600463815786</v>
       </c>
       <c r="I3" t="n">
         <v>52.71808759448422</v>
@@ -4412,13 +4412,13 @@
         <v>52.71808759448422</v>
       </c>
       <c r="K3" t="n">
-        <v>216.1238066351193</v>
+        <v>381.1211448319999</v>
       </c>
       <c r="L3" t="n">
-        <v>351.9746989818042</v>
+        <v>884.1039790291093</v>
       </c>
       <c r="M3" t="n">
-        <v>990.9111639625206</v>
+        <v>1061.992430897326</v>
       </c>
       <c r="N3" t="n">
         <v>1643.297497944263</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.6542705223911</v>
+        <v>611.4187313857278</v>
       </c>
       <c r="C4" t="n">
-        <v>52.71808759448422</v>
+        <v>442.4825484578209</v>
       </c>
       <c r="D4" t="n">
-        <v>52.71808759448422</v>
+        <v>442.4825484578209</v>
       </c>
       <c r="E4" t="n">
-        <v>52.71808759448422</v>
+        <v>442.4825484578209</v>
       </c>
       <c r="F4" t="n">
-        <v>52.71808759448422</v>
+        <v>295.5926009599106</v>
       </c>
       <c r="G4" t="n">
-        <v>52.71808759448422</v>
+        <v>177.3931026290512</v>
       </c>
       <c r="H4" t="n">
-        <v>52.71808759448422</v>
+        <v>177.3931026290512</v>
       </c>
       <c r="I4" t="n">
         <v>52.71808759448422</v>
@@ -4524,16 +4524,16 @@
         <v>1047.751684421854</v>
       </c>
       <c r="V4" t="n">
-        <v>1047.751684421854</v>
+        <v>793.0671962159676</v>
       </c>
       <c r="W4" t="n">
-        <v>758.3345143848937</v>
+        <v>793.0671962159676</v>
       </c>
       <c r="X4" t="n">
-        <v>530.3449634868764</v>
+        <v>793.0671962159676</v>
       </c>
       <c r="Y4" t="n">
-        <v>403.3027353526309</v>
+        <v>793.0671962159676</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2088.513466409731</v>
+        <v>1461.355036203683</v>
       </c>
       <c r="C5" t="n">
-        <v>1719.55094946932</v>
+        <v>1092.392519263271</v>
       </c>
       <c r="D5" t="n">
-        <v>1705.099046493925</v>
+        <v>1092.392519263271</v>
       </c>
       <c r="E5" t="n">
-        <v>1319.310793895681</v>
+        <v>706.6042666650267</v>
       </c>
       <c r="F5" t="n">
-        <v>908.3248891060737</v>
+        <v>295.6183618754191</v>
       </c>
       <c r="G5" t="n">
-        <v>491.224998716004</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174006</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I5" t="n">
         <v>52.71808759448422</v>
       </c>
       <c r="J5" t="n">
-        <v>240.3507333903765</v>
+        <v>72.94508437002345</v>
       </c>
       <c r="K5" t="n">
-        <v>642.3082349403345</v>
+        <v>474.9025859199814</v>
       </c>
       <c r="L5" t="n">
-        <v>1042.407704672387</v>
+        <v>1025.84303764856</v>
       </c>
       <c r="M5" t="n">
-        <v>1227.023259395758</v>
+        <v>1655.476990529834</v>
       </c>
       <c r="N5" t="n">
-        <v>1419.239895183006</v>
+        <v>2280.667081484947</v>
       </c>
       <c r="O5" t="n">
-        <v>1964.401531937499</v>
+        <v>2493.174093780573</v>
       </c>
       <c r="P5" t="n">
-        <v>2392.009993239694</v>
+        <v>2602.201833993</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.904379724211</v>
@@ -4600,19 +4600,19 @@
         <v>2478.652798385543</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.652798385543</v>
+        <v>2224.960126440574</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.652798385543</v>
+        <v>2224.960126440574</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.652798385543</v>
+        <v>2224.960126440574</v>
       </c>
       <c r="X5" t="n">
-        <v>2478.652798385543</v>
+        <v>1851.494368179494</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.513466409731</v>
+        <v>1461.355036203683</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120986</v>
+        <v>966.4318812120978</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309716</v>
+        <v>791.9788519309708</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697203</v>
+        <v>643.0444422697196</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642648</v>
+        <v>483.8069872642641</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911498</v>
+        <v>337.2724292911492</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640342</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815775</v>
+        <v>98.84600463815741</v>
       </c>
       <c r="I6" t="n">
         <v>52.71808759448422</v>
       </c>
       <c r="J6" t="n">
-        <v>170.7774263352073</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K6" t="n">
-        <v>499.1804835727229</v>
+        <v>381.1211448319999</v>
       </c>
       <c r="L6" t="n">
-        <v>1002.163317769832</v>
+        <v>884.1039790291093</v>
       </c>
       <c r="M6" t="n">
-        <v>1641.099782750549</v>
+        <v>1523.040444009826</v>
       </c>
       <c r="N6" t="n">
-        <v>1838.105057531856</v>
+        <v>2140.522820123272</v>
       </c>
       <c r="O6" t="n">
         <v>2298.524363244982</v>
@@ -4682,7 +4682,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930855</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4691,7 +4691,7 @@
         <v>1342.40751699712</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232167</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.3106404480845</v>
+        <v>70.97668332239667</v>
       </c>
       <c r="C7" t="n">
-        <v>476.3744575201777</v>
+        <v>70.97668332239667</v>
       </c>
       <c r="D7" t="n">
-        <v>369.2434576944862</v>
+        <v>70.97668332239667</v>
       </c>
       <c r="E7" t="n">
-        <v>221.3303641120931</v>
+        <v>70.97668332239667</v>
       </c>
       <c r="F7" t="n">
-        <v>221.3303641120931</v>
+        <v>70.97668332239667</v>
       </c>
       <c r="G7" t="n">
-        <v>52.71808759448422</v>
+        <v>70.97668332239667</v>
       </c>
       <c r="H7" t="n">
-        <v>52.71808759448422</v>
+        <v>70.97668332239667</v>
       </c>
       <c r="I7" t="n">
-        <v>52.71808759448422</v>
+        <v>70.97668332239667</v>
       </c>
       <c r="J7" t="n">
         <v>52.71808759448422</v>
@@ -4755,22 +4755,22 @@
         <v>1047.751684421854</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421854</v>
+        <v>831.1947908762622</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.751684421854</v>
+        <v>542.0423181895969</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.751684421854</v>
+        <v>542.0423181895969</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.751684421854</v>
+        <v>252.6251481526364</v>
       </c>
       <c r="X7" t="n">
-        <v>1047.751684421854</v>
+        <v>252.6251481526364</v>
       </c>
       <c r="Y7" t="n">
-        <v>826.9591052783243</v>
+        <v>252.6251481526364</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1132.930794153084</v>
+        <v>1485.699449423198</v>
       </c>
       <c r="C8" t="n">
-        <v>763.9682772126719</v>
+        <v>1116.736932482786</v>
       </c>
       <c r="D8" t="n">
-        <v>458.4992186651004</v>
+        <v>1116.736932482786</v>
       </c>
       <c r="E8" t="n">
-        <v>72.71096606685619</v>
+        <v>730.9486798845419</v>
       </c>
       <c r="F8" t="n">
-        <v>65.76546531765271</v>
+        <v>319.9627750949343</v>
       </c>
       <c r="G8" t="n">
         <v>52.71808759448422</v>
@@ -4804,25 +4804,25 @@
         <v>52.71808759448422</v>
       </c>
       <c r="J8" t="n">
-        <v>73.95233758786752</v>
+        <v>76.93817085930385</v>
       </c>
       <c r="K8" t="n">
-        <v>156.5154921624599</v>
+        <v>480.4052838793493</v>
       </c>
       <c r="L8" t="n">
-        <v>709.3287504086591</v>
+        <v>1033.218542125549</v>
       </c>
       <c r="M8" t="n">
-        <v>1341.046561391971</v>
+        <v>1219.917954950956</v>
       </c>
       <c r="N8" t="n">
-        <v>1968.354229451817</v>
+        <v>1414.252167842938</v>
       </c>
       <c r="O8" t="n">
-        <v>2490.185934453089</v>
+        <v>1961.413372610016</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.920259702616</v>
+        <v>2390.72841894931</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.904379724211</v>
@@ -4843,13 +4843,13 @@
         <v>2635.904379724211</v>
       </c>
       <c r="W8" t="n">
-        <v>2283.135724454097</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="X8" t="n">
-        <v>1909.669966193017</v>
+        <v>2262.438621463131</v>
       </c>
       <c r="Y8" t="n">
-        <v>1519.530634217205</v>
+        <v>1872.29928948732</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>52.71808759448422</v>
       </c>
       <c r="J9" t="n">
-        <v>52.71808759448422</v>
+        <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>120.3259072578413</v>
+        <v>500.8057437571898</v>
       </c>
       <c r="L9" t="n">
-        <v>345.99074315113</v>
+        <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>986.5360926182346</v>
+        <v>1232.289170088821</v>
       </c>
       <c r="N9" t="n">
-        <v>1638.922426599977</v>
+        <v>1430.945911741486</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.3584353527</v>
+        <v>1980.381920494209</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.326203833537</v>
+        <v>2404.349688975046</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.063145035514</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.5739510150303</v>
+        <v>132.8050041450811</v>
       </c>
       <c r="C10" t="n">
-        <v>497.6377680871234</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5211286747877</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="E10" t="n">
-        <v>199.6080350923946</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="F10" t="n">
         <v>52.71808759448422</v>
@@ -5001,13 +5001,13 @@
         <v>1052.652769053829</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.652769053829</v>
+        <v>763.2355990168683</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.652769053829</v>
+        <v>535.2460481188509</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.22241584527</v>
+        <v>314.4534689753208</v>
       </c>
     </row>
     <row r="11">
@@ -5041,19 +5041,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5129,10 +5129,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.079034721979</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>768.5380889459582</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>618.4214495336224</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>470.5083559512293</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F13" t="n">
-        <v>323.6184084533189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510508</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.043910473548</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.05435957553</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>1239.261780432</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5497,31 +5497,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5752,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770319</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>634.334587849125</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>484.2179484367892</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>336.3048548543961</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>336.3048548543961</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072716</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1938.286391947399</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1648.869221910438</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6378,7 +6378,7 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,13 +6958,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7089,10 +7089,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168594</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362668</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>405.7918549409409</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7993,7 +7993,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>368.9308216532355</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8060,16 +8060,16 @@
         <v>6.839178026547145</v>
       </c>
       <c r="K3" t="n">
-        <v>97.80125903593162</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792276</v>
+        <v>388.1816083491212</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>265.2965862711314</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>44.78540908207074</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.839178026547145</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>424.7243447799389</v>
       </c>
       <c r="O6" t="n">
-        <v>305.4724874660772</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3.015993203471041</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>355.2148279639521</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>89.32852310868159</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>458.3127195243208</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28624665954081</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.6433062151483</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>147.0213775686983</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>79.42624789262629</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>80.9846548059233</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983668</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380331</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380331</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380344</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821404</v>
+        <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>128024.1174663867</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408964</v>
+        <v>184436.3405408963</v>
       </c>
       <c r="C4" t="n">
         <v>184436.3405408963</v>
@@ -26453,7 +26453,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695133</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695052</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-383488.933650486</v>
+        <v>-383488.9336504858</v>
       </c>
       <c r="C6" t="n">
-        <v>406356.9994717524</v>
+        <v>406356.9994717525</v>
       </c>
       <c r="D6" t="n">
-        <v>404242.007664377</v>
+        <v>404242.0076643768</v>
       </c>
       <c r="E6" t="n">
-        <v>-217485.7170986962</v>
+        <v>-217173.0757697752</v>
       </c>
       <c r="F6" t="n">
-        <v>558138.5551342958</v>
+        <v>558451.1964632171</v>
       </c>
       <c r="G6" t="n">
-        <v>558138.5551342956</v>
+        <v>558451.1964632173</v>
       </c>
       <c r="H6" t="n">
-        <v>558138.5551342957</v>
+        <v>558451.1964632174</v>
       </c>
       <c r="I6" t="n">
-        <v>558138.555134296</v>
+        <v>558451.1964632173</v>
       </c>
       <c r="J6" t="n">
-        <v>385721.4137521553</v>
+        <v>386034.0550810767</v>
       </c>
       <c r="K6" t="n">
-        <v>558138.555134296</v>
+        <v>558451.1964632174</v>
       </c>
       <c r="L6" t="n">
-        <v>558138.555134296</v>
+        <v>558451.1964632171</v>
       </c>
       <c r="M6" t="n">
-        <v>430114.4376679089</v>
+        <v>430427.0789968304</v>
       </c>
       <c r="N6" t="n">
-        <v>558138.5551342958</v>
+        <v>558451.1964632167</v>
       </c>
       <c r="O6" t="n">
-        <v>558138.5551342961</v>
+        <v>558451.1964632174</v>
       </c>
       <c r="P6" t="n">
-        <v>558138.5551342956</v>
+        <v>558451.1964632174</v>
       </c>
     </row>
   </sheetData>
@@ -26721,13 +26721,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>93.36431808714786</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.1636514716173</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>25.7941278952847</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524328</v>
+        <v>49.90865040488201</v>
       </c>
       <c r="H4" t="n">
         <v>152.7599048465901</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842213</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>18.07600977063332</v>
@@ -27596,16 +27596,16 @@
         <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>92.81284749919172</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>340.3756576750427</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>172.4576199480433</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.1636514716173</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.9581905386872</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>212.7043385723319</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>42.55578319077783</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9261537524328</v>
       </c>
       <c r="H7" t="n">
         <v>152.7599048465901</v>
@@ -27797,7 +27797,7 @@
         <v>123.4282648842213</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063332</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>205.4595917937734</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207158</v>
+        <v>9.004555410579542</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>52.26867365858726</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>148.3446633204912</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>87.96077371353694</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.54335762560769e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O12" t="n">
-        <v>338.6542681503486</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34704,7 +34704,7 @@
         <v>81.87226576212618</v>
       </c>
       <c r="L2" t="n">
-        <v>544.6361471870341</v>
+        <v>556.5055067965436</v>
       </c>
       <c r="M2" t="n">
         <v>635.9938917992674</v>
@@ -34713,7 +34713,7 @@
         <v>631.5051423789012</v>
       </c>
       <c r="O2" t="n">
-        <v>550.668319954034</v>
+        <v>538.7989603445242</v>
       </c>
       <c r="P2" t="n">
         <v>110.1290305176033</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>165.0562818592274</v>
+        <v>331.7202598358743</v>
       </c>
       <c r="L3" t="n">
-        <v>137.22312358251</v>
+        <v>508.0634688859691</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673904</v>
+        <v>179.6853049173905</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310528</v>
+        <v>587.1768354009464</v>
       </c>
       <c r="O3" t="n">
         <v>553.4598375814872</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>189.5279250463558</v>
+        <v>20.43130987428205</v>
       </c>
       <c r="K5" t="n">
         <v>406.0176783332909</v>
       </c>
       <c r="L5" t="n">
-        <v>404.1408785172246</v>
+        <v>556.5055067965436</v>
       </c>
       <c r="M5" t="n">
-        <v>186.480358306435</v>
+        <v>635.9938917992674</v>
       </c>
       <c r="N5" t="n">
-        <v>194.158217966917</v>
+        <v>631.5051423789012</v>
       </c>
       <c r="O5" t="n">
-        <v>550.668319954034</v>
+        <v>214.6535477733594</v>
       </c>
       <c r="P5" t="n">
-        <v>431.927738689086</v>
+        <v>110.1290305176033</v>
       </c>
       <c r="Q5" t="n">
-        <v>246.3579661459767</v>
+        <v>34.04297548607204</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.2518573138617</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>331.7202598358743</v>
@@ -35026,10 +35026,10 @@
         <v>645.3903686673904</v>
       </c>
       <c r="N6" t="n">
-        <v>198.9952270518251</v>
+        <v>623.719571831764</v>
       </c>
       <c r="O6" t="n">
-        <v>465.0700057708349</v>
+        <v>159.5975183047577</v>
       </c>
       <c r="P6" t="n">
         <v>108.5627290646412</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>24.46473057052488</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>527.1027323245172</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>227.9442786800896</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>658.9760949310528</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35272,7 +35272,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O12" t="n">
-        <v>196.0580237059041</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
